--- a/Tests/1/Test_SingleRun7.xlsx
+++ b/Tests/1/Test_SingleRun7.xlsx
@@ -334,6 +334,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -349,18 +361,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,55 +684,55 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="42">
+      <c r="B2" s="40"/>
+      <c r="C2" s="37">
         <v>1799.5695000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="39">
+      <c r="B3" s="40"/>
+      <c r="C3" s="34">
         <v>4417.7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="38">
+      <c r="B4" s="40"/>
+      <c r="C4" s="33">
         <v>2194.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="37">
+      <c r="B5" s="40"/>
+      <c r="C5" s="32">
         <v>0.61129999999999907</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="36">
+      <c r="B6" s="40"/>
+      <c r="C6" s="31">
         <v>1.0478538313460108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="25">
         <v>60</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="29">
         <v>45339.6</v>
       </c>
     </row>
@@ -760,7 +760,7 @@
       <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="29">
         <v>16982.7</v>
       </c>
     </row>
@@ -768,7 +768,7 @@
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="29">
         <v>6701</v>
       </c>
     </row>
@@ -776,7 +776,7 @@
       <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="29">
         <v>3606.6</v>
       </c>
     </row>
@@ -784,7 +784,7 @@
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="29">
         <v>2182.5</v>
       </c>
     </row>
@@ -792,7 +792,7 @@
       <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="29">
         <v>1479.9</v>
       </c>
     </row>
@@ -800,7 +800,7 @@
       <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="29">
         <v>1058.7</v>
       </c>
     </row>
@@ -808,7 +808,7 @@
       <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="29">
         <v>833.7</v>
       </c>
     </row>
@@ -816,7 +816,7 @@
       <c r="B17" s="3">
         <v>9</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="29">
         <v>707.8</v>
       </c>
     </row>
@@ -824,7 +824,7 @@
       <c r="B18" s="4">
         <v>10</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="29">
         <v>511.1</v>
       </c>
     </row>
@@ -832,7 +832,7 @@
       <c r="B19" s="4">
         <v>11.5</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="29">
         <v>545.6</v>
       </c>
     </row>
@@ -840,7 +840,7 @@
       <c r="B20" s="3">
         <v>13</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="29">
         <v>380.5</v>
       </c>
     </row>
@@ -848,7 +848,7 @@
       <c r="B21" s="3">
         <v>14.5</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="29">
         <v>360</v>
       </c>
     </row>
@@ -856,7 +856,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="29">
         <v>319</v>
       </c>
     </row>
@@ -864,7 +864,7 @@
       <c r="B23" s="3">
         <v>17.5</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="29">
         <v>294.10000000000002</v>
       </c>
     </row>
@@ -872,7 +872,7 @@
       <c r="B24" s="3">
         <v>19</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="29">
         <v>168.6</v>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="B25" s="3">
         <v>20.5</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="29">
         <v>237.3</v>
       </c>
     </row>
@@ -888,7 +888,7 @@
       <c r="B26" s="3">
         <v>22</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="29">
         <v>203.3</v>
       </c>
     </row>
@@ -896,7 +896,7 @@
       <c r="B27" s="3">
         <v>23.5</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="29">
         <v>211.6</v>
       </c>
     </row>
@@ -904,7 +904,7 @@
       <c r="B28" s="3">
         <v>25</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="29">
         <v>194.5</v>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="29">
         <v>192.7</v>
       </c>
     </row>
@@ -920,7 +920,7 @@
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="29">
         <v>220.3</v>
       </c>
     </row>
@@ -928,7 +928,7 @@
       <c r="B31" s="3">
         <v>31</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="29">
         <v>141.4</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
       <c r="B32" s="3">
         <v>33</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="29">
         <v>232.9</v>
       </c>
     </row>
@@ -944,7 +944,7 @@
       <c r="B33" s="3">
         <v>35</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="29">
         <v>131.4</v>
       </c>
     </row>
@@ -952,7 +952,7 @@
       <c r="B34" s="3">
         <v>37</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="29">
         <v>158.1</v>
       </c>
     </row>
@@ -960,7 +960,7 @@
       <c r="B35" s="3">
         <v>39</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="29">
         <v>162.30000000000001</v>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="B36" s="3">
         <v>41</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="29">
         <v>145.1</v>
       </c>
     </row>
@@ -976,7 +976,7 @@
       <c r="B37" s="3">
         <v>43</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="29">
         <v>180.9</v>
       </c>
     </row>
@@ -984,7 +984,7 @@
       <c r="B38" s="3">
         <v>45</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="29">
         <v>107.6</v>
       </c>
     </row>
@@ -1006,8 +1006,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,11 +1023,11 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="42">
+      <c r="B2" s="40"/>
+      <c r="C2" s="37">
         <v>1799.5695000000001</v>
       </c>
       <c r="D2" s="8"/>
@@ -1043,11 +1043,11 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="41">
+      <c r="B3" s="40"/>
+      <c r="C3" s="36">
         <v>4417.7</v>
       </c>
       <c r="D3" s="7"/>
@@ -1063,11 +1063,11 @@
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="40">
+      <c r="B4" s="40"/>
+      <c r="C4" s="35">
         <v>2194.6</v>
       </c>
       <c r="D4" s="7"/>
@@ -1083,11 +1083,11 @@
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="43">
+      <c r="B5" s="40"/>
+      <c r="C5" s="38">
         <v>0.61129999999999907</v>
       </c>
       <c r="D5" s="9"/>
@@ -1103,19 +1103,19 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="44">
+      <c r="B6" s="40"/>
+      <c r="C6" s="39">
         <v>1.0478538313460108</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="26">
         <v>60</v>
       </c>
@@ -1132,10 +1132,10 @@
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="22">
         <v>45</v>
       </c>
@@ -1152,10 +1152,10 @@
       <c r="N8" s="16"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="44"/>
       <c r="C9">
         <f>C16+C10</f>
         <v>49.614736457732761</v>
@@ -1173,10 +1173,10 @@
       <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="42"/>
       <c r="C10">
         <f>60*(C13-(C22/C21)*EXP(-1*C21*C8))/C2/C7</f>
         <v>5.3550674340036464</v>
@@ -1194,10 +1194,10 @@
       <c r="N10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="42"/>
       <c r="C11">
         <f>C16/C9</f>
         <v>0.89206699830874492</v>
@@ -1212,10 +1212,10 @@
       <c r="N11" s="16"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="42"/>
       <c r="C12">
         <f>C9*C17/(3*0.693)</f>
         <v>260.81769098387343</v>
@@ -1233,10 +1233,10 @@
       <c r="N12" s="16"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="17">
         <f>(C3+C4)/C5</f>
         <v>10816.783903157222</v>
@@ -1254,15 +1254,14 @@
       <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="41" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="17">
-        <f>C196</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="16"/>
@@ -1277,12 +1276,12 @@
       <c r="N14" s="16"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="17">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="16"/>
@@ -1297,7 +1296,7 @@
       <c r="N15" s="16"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="20" t="s">
         <v>20</v>
       </c>
@@ -1318,7 +1317,7 @@
       <c r="N16" s="16"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="21" t="s">
         <v>24</v>
       </c>
@@ -1339,7 +1338,7 @@
       <c r="N17" s="16"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="21" t="s">
         <v>25</v>
       </c>
@@ -1360,7 +1359,7 @@
       <c r="N18" s="16"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="21" t="s">
         <v>26</v>
       </c>
@@ -1381,7 +1380,7 @@
       <c r="N19" s="16"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="21" t="s">
         <v>27</v>
       </c>
@@ -1402,7 +1401,7 @@
       <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="21" t="s">
         <v>28</v>
       </c>
@@ -1423,7 +1422,7 @@
       <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="21" t="s">
         <v>29</v>
       </c>
@@ -1444,15 +1443,14 @@
       <c r="N22" s="16"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="41" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="17">
-        <f>C291</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -1467,7 +1465,7 @@
       <c r="N23" s="16"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="20" t="s">
         <v>37</v>
       </c>
@@ -1488,7 +1486,7 @@
       <c r="N24" s="16"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="20" t="s">
         <v>20</v>
       </c>
@@ -1509,7 +1507,7 @@
       <c r="N25" s="16"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="21" t="s">
         <v>24</v>
       </c>
@@ -1530,7 +1528,7 @@
       <c r="N26" s="16"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="21" t="s">
         <v>25</v>
       </c>
@@ -1551,7 +1549,7 @@
       <c r="N27" s="16"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="21" t="s">
         <v>26</v>
       </c>
@@ -1572,7 +1570,7 @@
       <c r="N28" s="16"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="21" t="s">
         <v>27</v>
       </c>
@@ -1593,7 +1591,7 @@
       <c r="N29" s="16"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="21" t="s">
         <v>28</v>
       </c>
@@ -1614,7 +1612,7 @@
       <c r="N30" s="16"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="21" t="s">
         <v>29</v>
       </c>
@@ -1635,18 +1633,18 @@
       <c r="N31" s="16"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="20" t="s">
         <v>37</v>
       </c>
@@ -1667,7 +1665,7 @@
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>20</v>
       </c>
@@ -1688,7 +1686,7 @@
       <c r="N34" s="16"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="21" t="s">
         <v>24</v>
       </c>
@@ -1709,7 +1707,7 @@
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="21" t="s">
         <v>25</v>
       </c>
@@ -1730,7 +1728,7 @@
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="21" t="s">
         <v>26</v>
       </c>
@@ -1751,7 +1749,7 @@
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="21" t="s">
         <v>27</v>
       </c>
@@ -1772,7 +1770,7 @@
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="21" t="s">
         <v>28</v>
       </c>
@@ -1793,7 +1791,7 @@
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="21" t="s">
         <v>29</v>
       </c>
@@ -1839,7 +1837,7 @@
       <c r="B42" s="3">
         <v>1</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C42" s="30">
         <v>45339.6</v>
       </c>
       <c r="D42" s="7"/>
@@ -1858,7 +1856,7 @@
       <c r="B43" s="3">
         <v>2</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="30">
         <v>16982.7</v>
       </c>
       <c r="D43" s="7"/>
@@ -1877,7 +1875,7 @@
       <c r="B44" s="3">
         <v>3</v>
       </c>
-      <c r="C44" s="35">
+      <c r="C44" s="30">
         <v>6701</v>
       </c>
       <c r="D44" s="7"/>
@@ -1896,7 +1894,7 @@
       <c r="B45" s="4">
         <v>4</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="30">
         <v>3606.6</v>
       </c>
       <c r="D45" s="7"/>
@@ -1915,7 +1913,7 @@
       <c r="B46" s="3">
         <v>5</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C46" s="30">
         <v>2182.5</v>
       </c>
       <c r="D46" s="7"/>
@@ -1934,7 +1932,7 @@
       <c r="B47" s="3">
         <v>6</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="30">
         <v>1479.9</v>
       </c>
       <c r="D47" s="7"/>
@@ -1953,7 +1951,7 @@
       <c r="B48" s="3">
         <v>7</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="30">
         <v>1058.7</v>
       </c>
       <c r="D48" s="7"/>
@@ -1972,7 +1970,7 @@
       <c r="B49" s="3">
         <v>8</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="30">
         <v>833.7</v>
       </c>
       <c r="D49" s="7"/>
@@ -1991,7 +1989,7 @@
       <c r="B50" s="3">
         <v>9</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C50" s="30">
         <v>707.8</v>
       </c>
       <c r="D50" s="7"/>
@@ -2010,7 +2008,7 @@
       <c r="B51" s="4">
         <v>10</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="30">
         <v>511.1</v>
       </c>
       <c r="D51" s="7"/>
@@ -2029,7 +2027,7 @@
       <c r="B52" s="4">
         <v>11.5</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="30">
         <v>545.6</v>
       </c>
       <c r="D52" s="7"/>
@@ -2048,7 +2046,7 @@
       <c r="B53" s="3">
         <v>13</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="30">
         <v>380.5</v>
       </c>
       <c r="D53" s="7"/>
@@ -2066,7 +2064,7 @@
       <c r="B54" s="3">
         <v>14.5</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C54" s="30">
         <v>360</v>
       </c>
       <c r="D54" s="7"/>
@@ -2085,7 +2083,7 @@
       <c r="B55" s="3">
         <v>16</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="30">
         <v>319</v>
       </c>
       <c r="D55" s="7"/>
@@ -2104,7 +2102,7 @@
       <c r="B56" s="3">
         <v>17.5</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="30">
         <v>294.10000000000002</v>
       </c>
       <c r="D56" s="7"/>
@@ -2123,7 +2121,7 @@
       <c r="B57" s="3">
         <v>19</v>
       </c>
-      <c r="C57" s="35">
+      <c r="C57" s="30">
         <v>168.6</v>
       </c>
       <c r="D57" s="7"/>
@@ -2142,7 +2140,7 @@
       <c r="B58" s="3">
         <v>20.5</v>
       </c>
-      <c r="C58" s="35">
+      <c r="C58" s="30">
         <v>237.3</v>
       </c>
       <c r="D58" s="7"/>
@@ -2161,7 +2159,7 @@
       <c r="B59" s="3">
         <v>22</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="30">
         <v>203.3</v>
       </c>
       <c r="D59" s="7"/>
@@ -2180,7 +2178,7 @@
       <c r="B60" s="3">
         <v>23.5</v>
       </c>
-      <c r="C60" s="35">
+      <c r="C60" s="30">
         <v>211.6</v>
       </c>
       <c r="D60" s="7"/>
@@ -2199,7 +2197,7 @@
       <c r="B61" s="3">
         <v>25</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="30">
         <v>194.5</v>
       </c>
       <c r="D61" s="7"/>
@@ -2218,7 +2216,7 @@
       <c r="B62" s="3">
         <v>27</v>
       </c>
-      <c r="C62" s="35">
+      <c r="C62" s="30">
         <v>192.7</v>
       </c>
       <c r="D62" s="7"/>
@@ -2237,7 +2235,7 @@
       <c r="B63" s="3">
         <v>29</v>
       </c>
-      <c r="C63" s="35">
+      <c r="C63" s="30">
         <v>220.3</v>
       </c>
       <c r="D63" s="7"/>
@@ -2256,7 +2254,7 @@
       <c r="B64" s="3">
         <v>31</v>
       </c>
-      <c r="C64" s="35">
+      <c r="C64" s="30">
         <v>141.4</v>
       </c>
     </row>
@@ -2264,7 +2262,7 @@
       <c r="B65" s="3">
         <v>33</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C65" s="30">
         <v>232.9</v>
       </c>
     </row>
@@ -2272,7 +2270,7 @@
       <c r="B66" s="3">
         <v>35</v>
       </c>
-      <c r="C66" s="35">
+      <c r="C66" s="30">
         <v>131.4</v>
       </c>
     </row>
@@ -2280,7 +2278,7 @@
       <c r="B67" s="3">
         <v>37</v>
       </c>
-      <c r="C67" s="35">
+      <c r="C67" s="30">
         <v>158.1</v>
       </c>
     </row>
@@ -2288,7 +2286,7 @@
       <c r="B68" s="3">
         <v>39</v>
       </c>
-      <c r="C68" s="35">
+      <c r="C68" s="30">
         <v>162.30000000000001</v>
       </c>
     </row>
@@ -2296,7 +2294,7 @@
       <c r="B69" s="3">
         <v>41</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C69" s="30">
         <v>145.1</v>
       </c>
     </row>
@@ -2304,7 +2302,7 @@
       <c r="B70" s="3">
         <v>43</v>
       </c>
-      <c r="C70" s="35">
+      <c r="C70" s="30">
         <v>180.9</v>
       </c>
     </row>
@@ -2312,7 +2310,7 @@
       <c r="B71" s="3">
         <v>45</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C71" s="30">
         <v>107.6</v>
       </c>
     </row>
@@ -3350,7 +3348,7 @@
       <c r="B171" s="3">
         <v>6</v>
       </c>
-      <c r="C171" s="33">
+      <c r="C171" s="28">
         <f>RSQ($B140:$B$164, $C140:$C$164)</f>
         <v>0.80054656475128538</v>
       </c>
@@ -3450,7 +3448,7 @@
       <c r="B176" s="4">
         <v>11.5</v>
       </c>
-      <c r="C176" s="33">
+      <c r="C176" s="28">
         <f>RSQ($B145:$B$164, $C145:$C$164)</f>
         <v>0.81709011655182462</v>
       </c>
